--- a/data/trans_dic/P14B23-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P14B23-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.01822737639022862</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05590114220709312</v>
+        <v>0.05590114220709311</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.0911956154059655</v>
@@ -664,7 +664,7 @@
         <v>0.04913637219370719</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.06217025152867884</v>
+        <v>0.06217025152867883</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01139517913489406</v>
+        <v>0.010673002726926</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01009388842732271</v>
+        <v>0.009763303340768841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04048300742153947</v>
+        <v>0.04135710049943615</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07071277947657242</v>
+        <v>0.06821744132960118</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06035215338274301</v>
+        <v>0.06077548050585405</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05501582335348232</v>
+        <v>0.0549461897594821</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04442232677130606</v>
+        <v>0.04393784709601785</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03800952631427375</v>
+        <v>0.03925484242463466</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05125650257132399</v>
+        <v>0.05165319315498545</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03200644368790205</v>
+        <v>0.03135473050003718</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03231644075667674</v>
+        <v>0.03109900711396294</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07678029261757648</v>
+        <v>0.07858418052873592</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1134485316132405</v>
+        <v>0.1115692816411731</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1026022018107248</v>
+        <v>0.1038579239894686</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08563357896782083</v>
+        <v>0.08367358387199038</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06804614036033613</v>
+        <v>0.06821528868164289</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06332675818584946</v>
+        <v>0.06388540600089145</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07488820198696088</v>
+        <v>0.074088321037639</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.06152584259657968</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.07119908212994761</v>
+        <v>0.07119908212994762</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.05528738494901681</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01910207961437975</v>
+        <v>0.01832172142219883</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009281368945031095</v>
+        <v>0.009044186992127036</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01643437390217327</v>
+        <v>0.0164060229491721</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06598904733311371</v>
+        <v>0.06577412460273575</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04679585952484774</v>
+        <v>0.04815134979945637</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0578768620079002</v>
+        <v>0.05996140127771141</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04608585341999229</v>
+        <v>0.04495662643232404</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03121443887630194</v>
+        <v>0.03153413000950959</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04048487507504555</v>
+        <v>0.0407011835001272</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04270162582957489</v>
+        <v>0.04031137194852294</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02532506675620956</v>
+        <v>0.02454964364954737</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03657200393106804</v>
+        <v>0.03528944030542842</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1001012483375564</v>
+        <v>0.1021352644883085</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07839180095360647</v>
+        <v>0.08004011447915006</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08465467916812748</v>
+        <v>0.08526150503153396</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06689029482291732</v>
+        <v>0.0660014825807729</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04852521103696053</v>
+        <v>0.04884815496802608</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05685308977534</v>
+        <v>0.05706207556403819</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01232458632491195</v>
+        <v>0.01137556971977966</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01490317578562838</v>
+        <v>0.01451192299106453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02124834938282859</v>
+        <v>0.02208111901023419</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05526270228743953</v>
+        <v>0.05444943559330646</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05113406018770657</v>
+        <v>0.05015530255698392</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07817172301370523</v>
+        <v>0.07811728614675947</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03659059064123175</v>
+        <v>0.03720175959270682</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03517120433686953</v>
+        <v>0.03556700835574401</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05361717009056319</v>
+        <v>0.0532537571380453</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03801445167996217</v>
+        <v>0.03813126243482368</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03658624540761193</v>
+        <v>0.03828084923832938</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05117333221198721</v>
+        <v>0.05364624733810942</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09465088002753244</v>
+        <v>0.09504391742834341</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0896418690403183</v>
+        <v>0.08657191277415056</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1163743691570878</v>
+        <v>0.1160150041924642</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06054348765289842</v>
+        <v>0.05919742908671433</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05886053115175762</v>
+        <v>0.05883721037113788</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07714686306219314</v>
+        <v>0.07787062320484284</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01782890347547594</v>
+        <v>0.01759345898948209</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01319136654970439</v>
+        <v>0.01400619943640856</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03291273432002303</v>
+        <v>0.03194049023549191</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06161748798941245</v>
+        <v>0.06241985895444808</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04993109448720656</v>
+        <v>0.04864024509138433</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07156516626897499</v>
+        <v>0.0704426880582584</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04416813725667446</v>
+        <v>0.04469495561413353</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0351010448085247</v>
+        <v>0.03598063576805617</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05635068888851291</v>
+        <v>0.055709488566192</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03869980359058488</v>
+        <v>0.04052066353237189</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0323383437805937</v>
+        <v>0.03258129839984209</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05940623193962181</v>
+        <v>0.05848233193016646</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09553850037585221</v>
+        <v>0.09619733228878302</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08226655864144446</v>
+        <v>0.08046382147624463</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09907631229060199</v>
+        <v>0.09991480784972827</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06509999749116464</v>
+        <v>0.06551544849129298</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05425066311026416</v>
+        <v>0.05330480318190307</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07579288713444057</v>
+        <v>0.07636463107835942</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.04392742366477541</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.05977510998432212</v>
+        <v>0.05977510998432211</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01945285199492841</v>
+        <v>0.01947544663696105</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01549782183132276</v>
+        <v>0.01485617203978425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0321017034585543</v>
+        <v>0.03161114073685194</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07179618805041722</v>
+        <v>0.07041097629132298</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05859270296704545</v>
+        <v>0.05909291470979196</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07273186518229634</v>
+        <v>0.07331544755997914</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04761473759596537</v>
+        <v>0.04769256339643078</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03925549998180625</v>
+        <v>0.03865526240186772</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05487092139409511</v>
+        <v>0.05406320808633589</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03039364984553857</v>
+        <v>0.0311453661706941</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02514246988506556</v>
+        <v>0.02446672067256133</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04552545949502023</v>
+        <v>0.04594478447260101</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0898058673947862</v>
+        <v>0.08983063821945649</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07750208701818941</v>
+        <v>0.07693728137728899</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08782080933619643</v>
+        <v>0.08859724223886213</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05873279286566738</v>
+        <v>0.0586856323841033</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04902330229248265</v>
+        <v>0.04904863553321134</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06543208960991158</v>
+        <v>0.06472113825583961</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8016</v>
+        <v>7508</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6811</v>
+        <v>6588</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27962</v>
+        <v>28566</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>49137</v>
+        <v>47403</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>40607</v>
+        <v>40892</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>40392</v>
+        <v>40340</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>62118</v>
+        <v>61441</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>51223</v>
+        <v>52901</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>73035</v>
+        <v>73600</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22516</v>
+        <v>22057</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21807</v>
+        <v>20986</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>53033</v>
+        <v>54279</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>78834</v>
+        <v>77528</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>69035</v>
+        <v>69880</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>62870</v>
+        <v>61431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>95153</v>
+        <v>95389</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>85342</v>
+        <v>86094</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>106707</v>
+        <v>105568</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19424</v>
+        <v>18630</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9490</v>
+        <v>9247</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17238</v>
+        <v>17209</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>67778</v>
+        <v>67557</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>48804</v>
+        <v>50218</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>62014</v>
+        <v>64247</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>94197</v>
+        <v>91889</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>64469</v>
+        <v>65129</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>85844</v>
+        <v>86302</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>43421</v>
+        <v>40991</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25893</v>
+        <v>25100</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38361</v>
+        <v>37016</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>102815</v>
+        <v>104904</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>81756</v>
+        <v>83475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>90705</v>
+        <v>91355</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>136721</v>
+        <v>134904</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>100221</v>
+        <v>100888</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>120551</v>
+        <v>120994</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9337</v>
+        <v>8618</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11320</v>
+        <v>11023</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17064</v>
+        <v>17733</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>42888</v>
+        <v>42257</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>40141</v>
+        <v>39372</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>63496</v>
+        <v>63451</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>56119</v>
+        <v>57057</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>54324</v>
+        <v>54935</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>86610</v>
+        <v>86022</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28801</v>
+        <v>28889</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27789</v>
+        <v>29076</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>41096</v>
+        <v>43082</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>73457</v>
+        <v>73762</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>70370</v>
+        <v>67960</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>94526</v>
+        <v>94234</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>92856</v>
+        <v>90791</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>90914</v>
+        <v>90878</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>124618</v>
+        <v>125787</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16878</v>
+        <v>16656</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12368</v>
+        <v>13132</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32586</v>
+        <v>31623</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>64630</v>
+        <v>65471</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>52117</v>
+        <v>50770</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>80084</v>
+        <v>78828</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>88141</v>
+        <v>89192</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>69547</v>
+        <v>71290</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>118849</v>
+        <v>117497</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>36637</v>
+        <v>38360</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30319</v>
+        <v>30547</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>58816</v>
+        <v>57901</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>100209</v>
+        <v>100900</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>85868</v>
+        <v>83986</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>110870</v>
+        <v>111809</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>129912</v>
+        <v>130741</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>107489</v>
+        <v>105615</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>159855</v>
+        <v>161061</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>66619</v>
+        <v>66696</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>52605</v>
+        <v>50427</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>113408</v>
+        <v>111675</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>254658</v>
+        <v>249745</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>207684</v>
+        <v>209457</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>271796</v>
+        <v>273976</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>331951</v>
+        <v>332493</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>272390</v>
+        <v>268225</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>398896</v>
+        <v>393024</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>104087</v>
+        <v>106661</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>85342</v>
+        <v>83049</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>160831</v>
+        <v>162312</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>318538</v>
+        <v>318626</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>274709</v>
+        <v>272707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>328182</v>
+        <v>331084</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>409461</v>
+        <v>409132</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>340167</v>
+        <v>340343</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>475673</v>
+        <v>470504</v>
       </c>
     </row>
     <row r="24">
